--- a/results/gurobi_cplex_comparison/seed_20_k_30.xlsx
+++ b/results/gurobi_cplex_comparison/seed_20_k_30.xlsx
@@ -429,10 +429,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.01</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="F2">
-        <v>0.027</v>
+        <v>0.235</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -449,10 +449,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.023</v>
+        <v>1.182</v>
       </c>
       <c r="F3">
-        <v>0.05</v>
+        <v>0.333</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -469,10 +469,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.025</v>
+        <v>1.614</v>
       </c>
       <c r="F4">
-        <v>0.046</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -489,10 +489,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.045</v>
+        <v>2.12</v>
       </c>
       <c r="F5">
-        <v>0.056</v>
+        <v>0.5620000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -509,10 +509,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.051</v>
+        <v>2.679</v>
       </c>
       <c r="F6">
-        <v>0.061</v>
+        <v>0.621</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -529,10 +529,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.08</v>
+        <v>3.336</v>
       </c>
       <c r="F7">
-        <v>0.08599999999999999</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -549,10 +549,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.033</v>
+        <v>4.024</v>
       </c>
       <c r="F8">
-        <v>0.067</v>
+        <v>0.862</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -569,10 +569,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.064</v>
+        <v>4.747</v>
       </c>
       <c r="F9">
-        <v>0.106</v>
+        <v>1.054</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.024</v>
+        <v>5.549</v>
       </c>
       <c r="F10">
-        <v>0.058</v>
+        <v>1.206</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -609,10 +609,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.049</v>
+        <v>6.426</v>
       </c>
       <c r="F11">
-        <v>0.06900000000000001</v>
+        <v>1.362</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.059</v>
+        <v>7.444</v>
       </c>
       <c r="F12">
-        <v>107.642</v>
+        <v>59.674</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -649,10 +649,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.109</v>
+        <v>8.474</v>
       </c>
       <c r="F13">
-        <v>101.14</v>
+        <v>163.874</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.207</v>
+        <v>9.711</v>
       </c>
       <c r="F14">
-        <v>119.632</v>
+        <v>107.112</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.221</v>
+        <v>10.841</v>
       </c>
       <c r="F15">
-        <v>67.3</v>
+        <v>84.547</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.167</v>
+        <v>11.974</v>
       </c>
       <c r="F16">
-        <v>118.482</v>
+        <v>100.171</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -729,10 +729,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.265</v>
+        <v>13.489</v>
       </c>
       <c r="F17">
-        <v>93.584</v>
+        <v>111.315</v>
       </c>
     </row>
   </sheetData>
